--- a/Lab_Files/instruction_set(1).xlsx
+++ b/Lab_Files/instruction_set(1).xlsx
@@ -530,7 +530,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,7 +540,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -555,12 +555,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -631,10 +625,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -1472,7 +1466,7 @@
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="39">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="39.75">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
         <v>22</v>
@@ -1498,7 +1492,7 @@
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="39">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="39.75">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>22</v>
@@ -1524,7 +1518,7 @@
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="39">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="39.75">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>22</v>
@@ -1550,7 +1544,7 @@
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1562,7 +1556,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="39">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="39.75">
       <c r="A25" s="2" t="s">
         <v>115</v>
       </c>
@@ -1590,7 +1584,7 @@
         <v>120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="39">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="39.75">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>100</v>
@@ -1616,7 +1610,7 @@
         <v>120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1628,7 +1622,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="27.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="28.5">
       <c r="A28" s="2" t="s">
         <v>125</v>
       </c>
@@ -1654,7 +1648,7 @@
       </c>
       <c r="J28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="27.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="28.5">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>131</v>
@@ -1678,7 +1672,7 @@
       </c>
       <c r="J29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="27.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="28.5">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>136</v>
@@ -1726,7 +1720,7 @@
       </c>
       <c r="J31" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="27.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="28.5">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>146</v>
@@ -1848,7 +1842,7 @@
       </c>
       <c r="J37" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="27.75">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="28.5">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
         <v>22</v>
@@ -1874,7 +1868,7 @@
       </c>
       <c r="J38" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1886,7 +1880,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1898,7 +1892,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1910,7 +1904,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1922,7 +1916,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1934,7 +1928,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1946,7 +1940,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1958,7 +1952,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1970,7 +1964,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>

--- a/Lab_Files/instruction_set(1).xlsx
+++ b/Lab_Files/instruction_set(1).xlsx
@@ -960,7 +960,7 @@
     <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="51">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="51.75">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>91</v>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="J19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="83.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="85.5">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>96</v>

--- a/Lab_Files/instruction_set(1).xlsx
+++ b/Lab_Files/instruction_set(1).xlsx
@@ -1976,7 +1976,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1988,7 +1988,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2000,7 +2000,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2012,7 +2012,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2024,7 +2024,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2036,7 +2036,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
